--- a/data/pca/factorExposure/factorExposure_2018-07-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-07-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03711595706793137</v>
+        <v>0.02644842106686032</v>
       </c>
       <c r="C2">
-        <v>-0.0379084925025747</v>
+        <v>0.01664932304256068</v>
       </c>
       <c r="D2">
-        <v>0.013366541828232</v>
+        <v>-0.02071221512566411</v>
       </c>
       <c r="E2">
-        <v>-0.04958727934248498</v>
+        <v>0.01473647984339302</v>
       </c>
       <c r="F2">
-        <v>-0.1344657780715117</v>
+        <v>0.006839350004790185</v>
       </c>
       <c r="G2">
-        <v>0.07951671365523835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.07536576827888447</v>
+      </c>
+      <c r="H2">
+        <v>-0.03381432020661795</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1246744846030633</v>
+        <v>0.07726290476268675</v>
       </c>
       <c r="C3">
-        <v>-0.03814218848915131</v>
+        <v>-0.01252275354141651</v>
       </c>
       <c r="D3">
-        <v>-0.04757888826142296</v>
+        <v>-0.01725743052267359</v>
       </c>
       <c r="E3">
-        <v>-0.09182991808045481</v>
+        <v>0.005390437901610087</v>
       </c>
       <c r="F3">
-        <v>-0.353658955332689</v>
+        <v>-0.04592474225125388</v>
       </c>
       <c r="G3">
-        <v>0.2522938752090034</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2385055791994238</v>
+      </c>
+      <c r="H3">
+        <v>-0.08918542325233893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0541237975735773</v>
+        <v>0.04839431716798808</v>
       </c>
       <c r="C4">
-        <v>0.001194512059584871</v>
+        <v>0.003303460734283582</v>
       </c>
       <c r="D4">
-        <v>0.03897432914672767</v>
+        <v>-0.04145196454132736</v>
       </c>
       <c r="E4">
-        <v>-0.06640544235909419</v>
+        <v>-0.01889885595075758</v>
       </c>
       <c r="F4">
-        <v>-0.06801422357212153</v>
+        <v>0.04911046315353213</v>
       </c>
       <c r="G4">
-        <v>0.06502817302128391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.05328597394504394</v>
+      </c>
+      <c r="H4">
+        <v>-0.04024930779102607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01435856353652994</v>
+        <v>0.02631460812306182</v>
       </c>
       <c r="C6">
-        <v>-0.009221335988516478</v>
+        <v>0.003809806038009324</v>
       </c>
       <c r="D6">
-        <v>-0.007364897976077231</v>
+        <v>-0.05181152787524212</v>
       </c>
       <c r="E6">
-        <v>-0.02192222200615667</v>
+        <v>-0.00401437242095228</v>
       </c>
       <c r="F6">
-        <v>-0.01311542825160228</v>
+        <v>0.0301908258172187</v>
       </c>
       <c r="G6">
-        <v>0.0008187526336381182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01988538860186852</v>
+      </c>
+      <c r="H6">
+        <v>-0.05627034075716959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02511321203999857</v>
+        <v>0.0206510497323273</v>
       </c>
       <c r="C7">
-        <v>-0.005377476299281009</v>
+        <v>0.003150647302892355</v>
       </c>
       <c r="D7">
-        <v>-0.005473172118468046</v>
+        <v>-0.02516615833007918</v>
       </c>
       <c r="E7">
-        <v>-0.03916910259243709</v>
+        <v>-0.03563151715633513</v>
       </c>
       <c r="F7">
-        <v>-0.0489058858326446</v>
+        <v>0.008519344013203161</v>
       </c>
       <c r="G7">
-        <v>0.06681783686394066</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03364900986301628</v>
+      </c>
+      <c r="H7">
+        <v>-0.02938129154944984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.02126921589507867</v>
+        <v>0.007040485272579586</v>
       </c>
       <c r="C8">
-        <v>0.001206021526513915</v>
+        <v>-0.002351659439687099</v>
       </c>
       <c r="D8">
-        <v>0.0108953607098595</v>
+        <v>-0.01025480115524705</v>
       </c>
       <c r="E8">
-        <v>-0.07024014243395296</v>
+        <v>-0.01013228469354246</v>
       </c>
       <c r="F8">
-        <v>-0.08494829391092902</v>
+        <v>0.01841602829297901</v>
       </c>
       <c r="G8">
-        <v>0.08904881994081276</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05843519182639349</v>
+      </c>
+      <c r="H8">
+        <v>-0.02100538113355677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04578407729199649</v>
+        <v>0.03985083708037798</v>
       </c>
       <c r="C9">
-        <v>0.009032632669576232</v>
+        <v>-0.0008384943634651504</v>
       </c>
       <c r="D9">
-        <v>0.03057084595684589</v>
+        <v>-0.03310982045312116</v>
       </c>
       <c r="E9">
-        <v>-0.06813547120844442</v>
+        <v>-0.01739565418396606</v>
       </c>
       <c r="F9">
-        <v>-0.06913329233621086</v>
+        <v>0.02396347723039351</v>
       </c>
       <c r="G9">
-        <v>0.06057780754731455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.06114221730022017</v>
+      </c>
+      <c r="H9">
+        <v>-0.03701053154704013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03187611038093631</v>
+        <v>0.099707638620087</v>
       </c>
       <c r="C10">
-        <v>0.03124484367832256</v>
+        <v>-0.03107930923284192</v>
       </c>
       <c r="D10">
-        <v>0.02686114995453679</v>
+        <v>0.1531354112476677</v>
       </c>
       <c r="E10">
-        <v>0.1124500325495084</v>
+        <v>0.008660502379568853</v>
       </c>
       <c r="F10">
-        <v>-0.06843229041670869</v>
+        <v>-0.04711485814233385</v>
       </c>
       <c r="G10">
-        <v>-0.003035724007448308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02151650520630839</v>
+      </c>
+      <c r="H10">
+        <v>-0.00414609202145981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03651163306088494</v>
+        <v>0.02133767849056239</v>
       </c>
       <c r="C11">
-        <v>-0.01964957679906181</v>
+        <v>-0.008319342678165049</v>
       </c>
       <c r="D11">
-        <v>0.001140231149790048</v>
+        <v>-0.03690375120077902</v>
       </c>
       <c r="E11">
-        <v>-0.03773233680522616</v>
+        <v>0.005176357541751712</v>
       </c>
       <c r="F11">
-        <v>-0.0339599772744678</v>
+        <v>0.01024251942376391</v>
       </c>
       <c r="G11">
-        <v>0.02570644869905762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03358762507578229</v>
+      </c>
+      <c r="H11">
+        <v>-0.03464330675660163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04459159806967998</v>
+        <v>0.03000376635641616</v>
       </c>
       <c r="C12">
-        <v>-0.008008788349145674</v>
+        <v>-0.00680827429686997</v>
       </c>
       <c r="D12">
-        <v>0.008976726289668764</v>
+        <v>-0.03799905783102882</v>
       </c>
       <c r="E12">
-        <v>-0.0446606758397662</v>
+        <v>-0.006371768893403785</v>
       </c>
       <c r="F12">
-        <v>-0.01969756877193479</v>
+        <v>0.01691882004974966</v>
       </c>
       <c r="G12">
-        <v>0.01635820077581991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01449331224212026</v>
+      </c>
+      <c r="H12">
+        <v>-0.01843886143086726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02078831900991689</v>
+        <v>0.02653672352504763</v>
       </c>
       <c r="C13">
-        <v>-0.03508935781424428</v>
+        <v>0.01333772458647052</v>
       </c>
       <c r="D13">
-        <v>0.008145724892817263</v>
+        <v>-0.003212286098458222</v>
       </c>
       <c r="E13">
-        <v>-0.01923920160479247</v>
+        <v>0.01749822275931399</v>
       </c>
       <c r="F13">
-        <v>-0.07531816399437334</v>
+        <v>0.0110164316363689</v>
       </c>
       <c r="G13">
-        <v>0.05091862293198159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06421747068884537</v>
+      </c>
+      <c r="H13">
+        <v>-0.03725310527129219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01035301135638427</v>
+        <v>0.01542607825053081</v>
       </c>
       <c r="C14">
-        <v>-0.005311345316008504</v>
+        <v>0.0009683766602867452</v>
       </c>
       <c r="D14">
-        <v>0.00680519690689092</v>
+        <v>-0.005287989517102002</v>
       </c>
       <c r="E14">
-        <v>-0.04063254151322766</v>
+        <v>-0.008030524728976186</v>
       </c>
       <c r="F14">
-        <v>-0.04532219737416927</v>
+        <v>0.01516887875707726</v>
       </c>
       <c r="G14">
-        <v>0.07596364590548164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04572628366955989</v>
+      </c>
+      <c r="H14">
+        <v>0.01080089159659849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02740655569567158</v>
+        <v>0.02259962997916633</v>
       </c>
       <c r="C16">
-        <v>-0.0185460950888316</v>
+        <v>-0.008849686580541544</v>
       </c>
       <c r="D16">
-        <v>0.003509445306996369</v>
+        <v>-0.0332701140073773</v>
       </c>
       <c r="E16">
-        <v>-0.03536252765939499</v>
+        <v>0.0001046006250562971</v>
       </c>
       <c r="F16">
-        <v>-0.03953846579109389</v>
+        <v>0.0152369412703496</v>
       </c>
       <c r="G16">
-        <v>0.02868361918235343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.03091465355721135</v>
+      </c>
+      <c r="H16">
+        <v>-0.02759501498077421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04403126794535347</v>
+        <v>0.03414510110168938</v>
       </c>
       <c r="C19">
-        <v>-0.01939927825019671</v>
+        <v>-0.0002940801260886983</v>
       </c>
       <c r="D19">
-        <v>0.0003304644536436218</v>
+        <v>-0.0156353245403133</v>
       </c>
       <c r="E19">
-        <v>-0.05153678200612593</v>
+        <v>0.001188827482166744</v>
       </c>
       <c r="F19">
-        <v>-0.09867846709610764</v>
+        <v>0.02069738850180987</v>
       </c>
       <c r="G19">
-        <v>0.06915347236681935</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.07417189515387446</v>
+      </c>
+      <c r="H19">
+        <v>-0.04990813939020821</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001841693731561327</v>
+        <v>0.01019196367187467</v>
       </c>
       <c r="C20">
-        <v>-0.01309340259598257</v>
+        <v>0.006462813301149964</v>
       </c>
       <c r="D20">
-        <v>0.01475996981355572</v>
+        <v>-0.005030732215948562</v>
       </c>
       <c r="E20">
-        <v>-0.04033673443658407</v>
+        <v>4.503516592977819e-06</v>
       </c>
       <c r="F20">
-        <v>-0.04779262295207215</v>
+        <v>0.01055390754267909</v>
       </c>
       <c r="G20">
-        <v>0.08368713663957426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05229873517071583</v>
+      </c>
+      <c r="H20">
+        <v>0.0001542330564236658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.000817048832281904</v>
+        <v>0.01900080163251344</v>
       </c>
       <c r="C21">
-        <v>-0.000517179272131171</v>
+        <v>0.006664499403329156</v>
       </c>
       <c r="D21">
-        <v>-0.01224948795688536</v>
+        <v>-0.009460402254549694</v>
       </c>
       <c r="E21">
-        <v>-0.0408366004073602</v>
+        <v>-0.01097286924205861</v>
       </c>
       <c r="F21">
-        <v>-0.05900784702818156</v>
+        <v>0.006617297977041384</v>
       </c>
       <c r="G21">
-        <v>0.03765281379356128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.06034444008159257</v>
+      </c>
+      <c r="H21">
+        <v>-0.01516854952190781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03360274159940049</v>
+        <v>0.0207525066231702</v>
       </c>
       <c r="C24">
-        <v>-0.01538101371428972</v>
+        <v>-0.003342615015752228</v>
       </c>
       <c r="D24">
-        <v>0.01044782515687974</v>
+        <v>-0.03332365710125127</v>
       </c>
       <c r="E24">
-        <v>-0.02030700939478415</v>
+        <v>5.264199234572254e-05</v>
       </c>
       <c r="F24">
-        <v>-0.03540598106123682</v>
+        <v>0.009195027646869041</v>
       </c>
       <c r="G24">
-        <v>0.02480364009179949</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02711049076479469</v>
+      </c>
+      <c r="H24">
+        <v>-0.03158539097761966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03208300025329833</v>
+        <v>0.02972225512677675</v>
       </c>
       <c r="C25">
-        <v>-0.009281346718346109</v>
+        <v>-0.001183927295227003</v>
       </c>
       <c r="D25">
-        <v>0.001849815035077953</v>
+        <v>-0.03315714241134378</v>
       </c>
       <c r="E25">
-        <v>-0.04148563586809551</v>
+        <v>-0.001452728599345992</v>
       </c>
       <c r="F25">
-        <v>-0.03439542504358926</v>
+        <v>0.01592044423759795</v>
       </c>
       <c r="G25">
-        <v>0.009055942710439519</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.0316137297189507</v>
+      </c>
+      <c r="H25">
+        <v>-0.03410709231385753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02426992999701997</v>
+        <v>0.02087169509245353</v>
       </c>
       <c r="C26">
-        <v>-0.02760024094207935</v>
+        <v>0.01667741057752681</v>
       </c>
       <c r="D26">
-        <v>-0.01699615057675316</v>
+        <v>-0.002477218542108545</v>
       </c>
       <c r="E26">
-        <v>-0.03521656162014142</v>
+        <v>0.007202404004666215</v>
       </c>
       <c r="F26">
-        <v>-0.05637595650857027</v>
+        <v>0.0005260996223473924</v>
       </c>
       <c r="G26">
-        <v>0.03987714123302081</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03652482557100774</v>
+      </c>
+      <c r="H26">
+        <v>-0.007246666423819796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.0701428861428023</v>
+        <v>0.02718626123802491</v>
       </c>
       <c r="C27">
-        <v>-0.00756124443063844</v>
+        <v>-0.01083501601105527</v>
       </c>
       <c r="D27">
-        <v>0.05233367229722627</v>
+        <v>-0.01679853982535308</v>
       </c>
       <c r="E27">
-        <v>-0.04364414441074851</v>
+        <v>-0.004773885674997443</v>
       </c>
       <c r="F27">
-        <v>-0.04182095686140948</v>
+        <v>0.02129085323304281</v>
       </c>
       <c r="G27">
-        <v>0.03985521970818661</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.0230679065845837</v>
+      </c>
+      <c r="H27">
+        <v>-0.002081554919595366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04937040607955422</v>
+        <v>0.1492402754656519</v>
       </c>
       <c r="C28">
-        <v>0.04673297795066873</v>
+        <v>-0.03329939926658704</v>
       </c>
       <c r="D28">
-        <v>0.04964962363213492</v>
+        <v>0.2256756489113075</v>
       </c>
       <c r="E28">
-        <v>0.1662966671389914</v>
+        <v>0.005649141253583541</v>
       </c>
       <c r="F28">
-        <v>-0.08427597371914519</v>
+        <v>-0.05226883288442286</v>
       </c>
       <c r="G28">
-        <v>0.02407663565735289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0067946571985502</v>
+      </c>
+      <c r="H28">
+        <v>0.01419257918821872</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02062463902683583</v>
+        <v>0.02079944757205478</v>
       </c>
       <c r="C29">
-        <v>0.001372886978009121</v>
+        <v>-0.001407581566884591</v>
       </c>
       <c r="D29">
-        <v>0.01237507755949932</v>
+        <v>-0.008415255641672973</v>
       </c>
       <c r="E29">
-        <v>-0.0528326380674291</v>
+        <v>-0.009366728730737732</v>
       </c>
       <c r="F29">
-        <v>-0.03772472059368843</v>
+        <v>0.01786647530608558</v>
       </c>
       <c r="G29">
-        <v>0.06748258461423749</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.04068657881275878</v>
+      </c>
+      <c r="H29">
+        <v>0.01126516039063874</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09204938723573577</v>
+        <v>0.05209379383061317</v>
       </c>
       <c r="C30">
-        <v>-0.04901182692868351</v>
+        <v>0.004330698473518814</v>
       </c>
       <c r="D30">
-        <v>0.03314676902399189</v>
+        <v>-0.06680004362306033</v>
       </c>
       <c r="E30">
-        <v>-0.07993047802636304</v>
+        <v>0.03658342454533713</v>
       </c>
       <c r="F30">
-        <v>-0.07398793475565434</v>
+        <v>0.04775703131035674</v>
       </c>
       <c r="G30">
-        <v>0.04856206213236845</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.06891434411121132</v>
+      </c>
+      <c r="H30">
+        <v>-0.04911667733600241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06557963284107185</v>
+        <v>0.05492711000577551</v>
       </c>
       <c r="C31">
-        <v>-0.04130054776103823</v>
+        <v>-0.01548666015037031</v>
       </c>
       <c r="D31">
-        <v>0.001151023661588439</v>
+        <v>-0.02828088209690217</v>
       </c>
       <c r="E31">
-        <v>-0.03385988875500211</v>
+        <v>0.00939821220459507</v>
       </c>
       <c r="F31">
-        <v>-0.02512610880637724</v>
+        <v>0.01494019254345865</v>
       </c>
       <c r="G31">
-        <v>0.08410847163220361</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02493014630895739</v>
+      </c>
+      <c r="H31">
+        <v>0.006678817494393353</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02129109958348967</v>
+        <v>0.01037510875806717</v>
       </c>
       <c r="C32">
-        <v>-0.01160076367842679</v>
+        <v>-0.01362379442031601</v>
       </c>
       <c r="D32">
-        <v>0.0130263776461104</v>
+        <v>-0.003364735507354296</v>
       </c>
       <c r="E32">
-        <v>-0.08489048244884824</v>
+        <v>-0.01907511413288219</v>
       </c>
       <c r="F32">
-        <v>-0.0522807213782867</v>
+        <v>0.04138612129744566</v>
       </c>
       <c r="G32">
-        <v>0.04933004516762347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.05049676666992992</v>
+      </c>
+      <c r="H32">
+        <v>-0.05033138628645614</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05440299652080725</v>
+        <v>0.03903125747421718</v>
       </c>
       <c r="C33">
-        <v>-0.03428885454194423</v>
+        <v>-0.001389743655307782</v>
       </c>
       <c r="D33">
-        <v>-0.01997059508443579</v>
+        <v>-0.02895352210133315</v>
       </c>
       <c r="E33">
-        <v>-0.06417148248795544</v>
+        <v>0.02540054613536148</v>
       </c>
       <c r="F33">
-        <v>-0.0783261036511869</v>
+        <v>-0.0002029873321785369</v>
       </c>
       <c r="G33">
-        <v>0.06207074139860263</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.06007613872398065</v>
+      </c>
+      <c r="H33">
+        <v>-0.02629774877973536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03531091887242449</v>
+        <v>0.02674438324435149</v>
       </c>
       <c r="C34">
-        <v>-0.01592684853117046</v>
+        <v>-0.01732025037789691</v>
       </c>
       <c r="D34">
-        <v>0.0117345282683214</v>
+        <v>-0.03446756399480929</v>
       </c>
       <c r="E34">
-        <v>-0.04370393893035623</v>
+        <v>-0.005385648276643792</v>
       </c>
       <c r="F34">
-        <v>-0.04534684166574764</v>
+        <v>0.01677347674753725</v>
       </c>
       <c r="G34">
-        <v>0.01731693010197228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02628756724646407</v>
+      </c>
+      <c r="H34">
+        <v>-0.02975982022307169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0145907391205485</v>
+        <v>0.02160451589851812</v>
       </c>
       <c r="C36">
-        <v>-0.00313681891551924</v>
+        <v>0.003389525184802969</v>
       </c>
       <c r="D36">
-        <v>0.004307748995092364</v>
+        <v>0.00068780938887085</v>
       </c>
       <c r="E36">
-        <v>-0.03060615092323273</v>
+        <v>-0.00227747081561417</v>
       </c>
       <c r="F36">
-        <v>-0.02786986303238516</v>
+        <v>0.005717279951331796</v>
       </c>
       <c r="G36">
-        <v>0.04087088291344086</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02292008966241908</v>
+      </c>
+      <c r="H36">
+        <v>-0.0007355774777622695</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001733066703256381</v>
+        <v>0.02292865987720186</v>
       </c>
       <c r="C38">
-        <v>0.01059575677392486</v>
+        <v>-0.01669018488885585</v>
       </c>
       <c r="D38">
-        <v>-0.01625027525414849</v>
+        <v>-0.002165930283151176</v>
       </c>
       <c r="E38">
-        <v>0.003021135531445325</v>
+        <v>-0.003586507105459455</v>
       </c>
       <c r="F38">
-        <v>-0.04739896207863002</v>
+        <v>0.006172166112167636</v>
       </c>
       <c r="G38">
-        <v>-0.002871243451525836</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.03139231791560047</v>
+      </c>
+      <c r="H38">
+        <v>-0.03142220674305385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04220397981395223</v>
+        <v>0.019719033434938</v>
       </c>
       <c r="C39">
-        <v>-0.03320108296327003</v>
+        <v>-0.0009525909804005416</v>
       </c>
       <c r="D39">
-        <v>0.01131527319367026</v>
+        <v>-0.07456635663903574</v>
       </c>
       <c r="E39">
-        <v>-0.04995412248396557</v>
+        <v>0.005551477287172618</v>
       </c>
       <c r="F39">
-        <v>-0.05474497587824617</v>
+        <v>0.02005897207853037</v>
       </c>
       <c r="G39">
-        <v>0.02582156418154168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.0551549835181544</v>
+      </c>
+      <c r="H39">
+        <v>-0.0580839168211939</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03427316199031685</v>
+        <v>0.03351951338377297</v>
       </c>
       <c r="C40">
-        <v>-0.06499900110792006</v>
+        <v>-0.001845163403119239</v>
       </c>
       <c r="D40">
-        <v>0.01892503821632388</v>
+        <v>-0.01877506521014005</v>
       </c>
       <c r="E40">
-        <v>-0.03691731107083943</v>
+        <v>0.0245171203124032</v>
       </c>
       <c r="F40">
-        <v>-0.07421168686662821</v>
+        <v>0.02500424749525123</v>
       </c>
       <c r="G40">
-        <v>0.06417651503327527</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.04192669219468195</v>
+      </c>
+      <c r="H40">
+        <v>-0.05981103156490609</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0002009739936099889</v>
+        <v>0.01233909056757276</v>
       </c>
       <c r="C41">
-        <v>-0.0009875000865999053</v>
+        <v>-0.0004118486265577592</v>
       </c>
       <c r="D41">
-        <v>-0.003155389541577268</v>
+        <v>0.01256490853071783</v>
       </c>
       <c r="E41">
-        <v>-0.01355093969594596</v>
+        <v>0.0009894861966648343</v>
       </c>
       <c r="F41">
-        <v>0.003599859347628872</v>
+        <v>0.001091609627092918</v>
       </c>
       <c r="G41">
-        <v>0.05400713066945263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.006688801898502496</v>
+      </c>
+      <c r="H41">
+        <v>0.01144513701160962</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.386144663223723</v>
+        <v>0.1961449340907886</v>
       </c>
       <c r="C42">
-        <v>0.1131506887962911</v>
+        <v>0.07379237288099358</v>
       </c>
       <c r="D42">
-        <v>-0.8622801891962802</v>
+        <v>-0.3746658463308674</v>
       </c>
       <c r="E42">
-        <v>0.1591297216666345</v>
+        <v>0.152321216650795</v>
       </c>
       <c r="F42">
-        <v>0.1792346078651932</v>
+        <v>-0.8583201082582355</v>
       </c>
       <c r="G42">
-        <v>0.03836135867168912</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1897267532288065</v>
+      </c>
+      <c r="H42">
+        <v>0.02449589390957274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.006285614230659806</v>
+        <v>0.01123744050470592</v>
       </c>
       <c r="C43">
-        <v>-0.004757758750315409</v>
+        <v>0.001706092709758199</v>
       </c>
       <c r="D43">
-        <v>-0.01518445838493788</v>
+        <v>0.01571495439196649</v>
       </c>
       <c r="E43">
-        <v>-0.01868309303502282</v>
+        <v>0.007451783489582238</v>
       </c>
       <c r="F43">
-        <v>-0.0163961643246829</v>
+        <v>-0.009478909309293583</v>
       </c>
       <c r="G43">
-        <v>0.05442313775733338</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01329127909570012</v>
+      </c>
+      <c r="H43">
+        <v>0.005343711675682902</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01687608998744399</v>
+        <v>0.01387213117788412</v>
       </c>
       <c r="C44">
-        <v>-0.01150048351269063</v>
+        <v>-0.001013667482437383</v>
       </c>
       <c r="D44">
-        <v>-0.01354784438838325</v>
+        <v>-0.01901570284647676</v>
       </c>
       <c r="E44">
-        <v>-0.05145327656837571</v>
+        <v>-0.001598069521245739</v>
       </c>
       <c r="F44">
-        <v>-0.1124682606174977</v>
+        <v>-0.005167914588401453</v>
       </c>
       <c r="G44">
-        <v>0.1214722447833893</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.06325092667307441</v>
+      </c>
+      <c r="H44">
+        <v>-0.03690363905732793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02014324229611977</v>
+        <v>0.01901254615061649</v>
       </c>
       <c r="C46">
-        <v>-0.01390887999820142</v>
+        <v>0.003482232686118678</v>
       </c>
       <c r="D46">
-        <v>-0.008083143868238338</v>
+        <v>-0.01497364768991625</v>
       </c>
       <c r="E46">
-        <v>-0.06337572037419006</v>
+        <v>0.001616469226898384</v>
       </c>
       <c r="F46">
-        <v>-0.04937676144182156</v>
+        <v>0.01533340812066823</v>
       </c>
       <c r="G46">
-        <v>0.07379990735832288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05616375958167321</v>
+      </c>
+      <c r="H46">
+        <v>0.002460684449005824</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1020969181468723</v>
+        <v>0.07529257100115967</v>
       </c>
       <c r="C47">
-        <v>-0.03424315537021411</v>
+        <v>-0.03089358575381631</v>
       </c>
       <c r="D47">
-        <v>0.02076004568240198</v>
+        <v>-0.04175211432303415</v>
       </c>
       <c r="E47">
-        <v>-0.03586417775809114</v>
+        <v>0.005747481079000305</v>
       </c>
       <c r="F47">
-        <v>0.009330682468072136</v>
+        <v>0.0240124747618229</v>
       </c>
       <c r="G47">
-        <v>0.08588923441297223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.005772357546613747</v>
+      </c>
+      <c r="H47">
+        <v>0.02769807885881702</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0180685681251841</v>
+        <v>0.02295922088371184</v>
       </c>
       <c r="C48">
-        <v>-0.01257795224677316</v>
+        <v>-0.007154899041782188</v>
       </c>
       <c r="D48">
-        <v>-0.003429979565608383</v>
+        <v>-0.004070958204444681</v>
       </c>
       <c r="E48">
-        <v>-0.03465085626551954</v>
+        <v>0.002506481565063092</v>
       </c>
       <c r="F48">
-        <v>-0.04323380075262147</v>
+        <v>0.008260390557097633</v>
       </c>
       <c r="G48">
-        <v>0.0257861704783357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02957456901623894</v>
+      </c>
+      <c r="H48">
+        <v>-0.007891947849987072</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09474281218297434</v>
+        <v>0.07269683975996838</v>
       </c>
       <c r="C50">
-        <v>-0.03746770740872991</v>
+        <v>-0.02778117992473586</v>
       </c>
       <c r="D50">
-        <v>0.009217484770329954</v>
+        <v>-0.0455261301030569</v>
       </c>
       <c r="E50">
-        <v>-0.05401075274156437</v>
+        <v>-0.00851005886494826</v>
       </c>
       <c r="F50">
-        <v>-0.02398519012442815</v>
+        <v>0.02067733382489694</v>
       </c>
       <c r="G50">
-        <v>0.04524985018583678</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.0236054701270664</v>
+      </c>
+      <c r="H50">
+        <v>0.01733761467679452</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01847434210455698</v>
+        <v>0.01844462337503372</v>
       </c>
       <c r="C51">
-        <v>-0.0178429824293226</v>
+        <v>0.00124814973319661</v>
       </c>
       <c r="D51">
-        <v>-0.01329204814120202</v>
+        <v>0.00806341068399182</v>
       </c>
       <c r="E51">
-        <v>-0.01993456179277111</v>
+        <v>0.006037742419187695</v>
       </c>
       <c r="F51">
-        <v>-0.1251942596147859</v>
+        <v>-0.01213782558555048</v>
       </c>
       <c r="G51">
-        <v>0.07570759087081225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.06490139560662114</v>
+      </c>
+      <c r="H51">
+        <v>-0.03501521509813237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1048982956296759</v>
+        <v>0.09075925175554446</v>
       </c>
       <c r="C53">
-        <v>-0.03820335746720479</v>
+        <v>-0.03708824436702923</v>
       </c>
       <c r="D53">
-        <v>0.02592906540130761</v>
+        <v>-0.07891043712581303</v>
       </c>
       <c r="E53">
-        <v>-0.04701663696530976</v>
+        <v>0.003286645073539576</v>
       </c>
       <c r="F53">
-        <v>0.06474515005428795</v>
+        <v>0.05213560186573613</v>
       </c>
       <c r="G53">
-        <v>0.02771374861097847</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04802147159801076</v>
+      </c>
+      <c r="H53">
+        <v>0.04148548384685345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01391930302202018</v>
+        <v>0.02303567334495826</v>
       </c>
       <c r="C54">
-        <v>-0.004195026607160306</v>
+        <v>-0.01100384247843464</v>
       </c>
       <c r="D54">
-        <v>0.01291442025446839</v>
+        <v>0.01528441556391178</v>
       </c>
       <c r="E54">
-        <v>-0.04043237685948909</v>
+        <v>-0.005615063803130574</v>
       </c>
       <c r="F54">
-        <v>-0.04589522046498772</v>
+        <v>0.008232890134413412</v>
       </c>
       <c r="G54">
-        <v>0.09693064381342564</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03633016652431287</v>
+      </c>
+      <c r="H54">
+        <v>0.007537811134069105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1009317649586787</v>
+        <v>0.07575018172945189</v>
       </c>
       <c r="C55">
-        <v>-0.007199957604745184</v>
+        <v>-0.03201547941124697</v>
       </c>
       <c r="D55">
-        <v>0.025511314084071</v>
+        <v>-0.07629903274029028</v>
       </c>
       <c r="E55">
-        <v>-0.05344887691137298</v>
+        <v>-0.008044002051473384</v>
       </c>
       <c r="F55">
-        <v>0.05506841716165387</v>
+        <v>0.04115255172941608</v>
       </c>
       <c r="G55">
-        <v>0.05621413230057607</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.0261620909396295</v>
+      </c>
+      <c r="H55">
+        <v>0.04809984969518648</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1487036094806593</v>
+        <v>0.126556585107491</v>
       </c>
       <c r="C56">
-        <v>-0.04293101619318748</v>
+        <v>-0.05781104194288102</v>
       </c>
       <c r="D56">
-        <v>0.08554741917586568</v>
+        <v>-0.1001775603101843</v>
       </c>
       <c r="E56">
-        <v>-0.05011837570761126</v>
+        <v>0.0004675210826451256</v>
       </c>
       <c r="F56">
-        <v>0.1343829063634055</v>
+        <v>0.08384984894152241</v>
       </c>
       <c r="G56">
-        <v>-0.04028798908724496</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.08236537830899451</v>
+      </c>
+      <c r="H56">
+        <v>0.03949992412184217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04579253537717662</v>
+        <v>0.04008063254635822</v>
       </c>
       <c r="C57">
-        <v>-0.03099248008019445</v>
+        <v>0.009693140165716114</v>
       </c>
       <c r="D57">
-        <v>-0.01072312537867759</v>
+        <v>-0.02512440461483344</v>
       </c>
       <c r="E57">
-        <v>0.001912203048782533</v>
+        <v>0.01224741316081863</v>
       </c>
       <c r="F57">
-        <v>-0.07788184779331755</v>
+        <v>0.01013898660246402</v>
       </c>
       <c r="G57">
-        <v>0.04698716491425809</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06131182376773597</v>
+      </c>
+      <c r="H57">
+        <v>-0.02615295874366345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2119242261735608</v>
+        <v>0.1446648715396132</v>
       </c>
       <c r="C58">
-        <v>-0.1047857676879486</v>
+        <v>-0.04350657852236374</v>
       </c>
       <c r="D58">
-        <v>-0.02926389961556366</v>
+        <v>-0.1343773570678795</v>
       </c>
       <c r="E58">
-        <v>-0.2162413613158291</v>
+        <v>0.1265652287801019</v>
       </c>
       <c r="F58">
-        <v>-0.2602702964569891</v>
+        <v>-0.04920482053254573</v>
       </c>
       <c r="G58">
-        <v>0.05014410350425661</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.7515993066929862</v>
+      </c>
+      <c r="H58">
+        <v>0.472591216098713</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05141464784775737</v>
+        <v>0.1555230317105837</v>
       </c>
       <c r="C59">
-        <v>0.01000167475392743</v>
+        <v>-0.04138822756192606</v>
       </c>
       <c r="D59">
-        <v>0.06313807526031692</v>
+        <v>0.2216390772140515</v>
       </c>
       <c r="E59">
-        <v>0.1362482958045852</v>
+        <v>0.02493591254410775</v>
       </c>
       <c r="F59">
-        <v>-0.09570591967226887</v>
+        <v>-0.03289071852398932</v>
       </c>
       <c r="G59">
-        <v>-0.02038301235045225</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0073193761754607</v>
+      </c>
+      <c r="H59">
+        <v>-0.02298946059895461</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1650387351909259</v>
+        <v>0.1726414499565231</v>
       </c>
       <c r="C60">
-        <v>-0.06571195891591171</v>
+        <v>-0.03865480754907931</v>
       </c>
       <c r="D60">
-        <v>-0.008719759494132583</v>
+        <v>-0.02295104087466281</v>
       </c>
       <c r="E60">
-        <v>-0.01613166498019921</v>
+        <v>0.05339911825239806</v>
       </c>
       <c r="F60">
-        <v>-0.2009164735466608</v>
+        <v>0.03130757339786322</v>
       </c>
       <c r="G60">
-        <v>-0.3117541946908218</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.09649219664405821</v>
+      </c>
+      <c r="H60">
+        <v>-0.3909085858256773</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02293615154646148</v>
+        <v>0.02143541386024642</v>
       </c>
       <c r="C61">
-        <v>-0.008889812597977349</v>
+        <v>-0.006270098424596333</v>
       </c>
       <c r="D61">
-        <v>-0.002403308112949232</v>
+        <v>-0.04346816595633564</v>
       </c>
       <c r="E61">
-        <v>-0.02706824954817683</v>
+        <v>-0.0008361344863895989</v>
       </c>
       <c r="F61">
-        <v>-0.03300934839618933</v>
+        <v>0.01627309803929798</v>
       </c>
       <c r="G61">
-        <v>0.01035925772946314</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03346589764651962</v>
+      </c>
+      <c r="H61">
+        <v>-0.04228024960042278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01625073035083588</v>
+        <v>0.01274247300439368</v>
       </c>
       <c r="C63">
-        <v>-0.009540567019722326</v>
+        <v>0.002116358157538727</v>
       </c>
       <c r="D63">
-        <v>0.0008796792744057724</v>
+        <v>-0.01255765223576749</v>
       </c>
       <c r="E63">
-        <v>-0.04389096968658046</v>
+        <v>-0.001555193943264881</v>
       </c>
       <c r="F63">
-        <v>-0.0007549355972244377</v>
+        <v>0.01497457560100522</v>
       </c>
       <c r="G63">
-        <v>0.04995032623400284</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01738406717899958</v>
+      </c>
+      <c r="H63">
+        <v>0.009206713697266443</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03504826457025775</v>
+        <v>0.04056752595728549</v>
       </c>
       <c r="C64">
-        <v>0.01592230602510829</v>
+        <v>-0.01038803790783766</v>
       </c>
       <c r="D64">
-        <v>0.0159245117288437</v>
+        <v>-0.03997578419117864</v>
       </c>
       <c r="E64">
-        <v>-0.0471354203144741</v>
+        <v>-0.009122734801296188</v>
       </c>
       <c r="F64">
-        <v>-0.007094144892927479</v>
+        <v>0.009009495259480438</v>
       </c>
       <c r="G64">
-        <v>0.06204589369003596</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.01730635853952526</v>
+      </c>
+      <c r="H64">
+        <v>-0.02847937580478356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01532470914142241</v>
+        <v>0.0292934325320032</v>
       </c>
       <c r="C65">
-        <v>-0.009892707997363118</v>
+        <v>0.004437897385491979</v>
       </c>
       <c r="D65">
-        <v>-0.008291961007638833</v>
+        <v>-0.06087811947256714</v>
       </c>
       <c r="E65">
-        <v>-0.02068658181428969</v>
+        <v>-0.006234160161235735</v>
       </c>
       <c r="F65">
-        <v>-0.009713569540009806</v>
+        <v>0.03343993692023632</v>
       </c>
       <c r="G65">
-        <v>-0.003568060309456916</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.007810216703567813</v>
+      </c>
+      <c r="H65">
+        <v>-0.06203135637034141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04517240885551725</v>
+        <v>0.02622095788119841</v>
       </c>
       <c r="C66">
-        <v>-0.03867642624916521</v>
+        <v>-0.005556430841202874</v>
       </c>
       <c r="D66">
-        <v>0.009220181827773948</v>
+        <v>-0.08769463796475033</v>
       </c>
       <c r="E66">
-        <v>-0.04695355838310161</v>
+        <v>0.01123363392145395</v>
       </c>
       <c r="F66">
-        <v>-0.05354543463206302</v>
+        <v>0.03582466651896824</v>
       </c>
       <c r="G66">
-        <v>0.01384547900633501</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.04638629153133176</v>
+      </c>
+      <c r="H66">
+        <v>-0.06548029970088277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01658784195827141</v>
+        <v>0.04348209877452151</v>
       </c>
       <c r="C67">
-        <v>0.009852128156109122</v>
+        <v>-0.02046020789183052</v>
       </c>
       <c r="D67">
-        <v>-0.007655630733237031</v>
+        <v>0.002734813165314367</v>
       </c>
       <c r="E67">
-        <v>0.02318430729742143</v>
+        <v>-0.002034859450665435</v>
       </c>
       <c r="F67">
-        <v>-0.03717533531587233</v>
+        <v>0.0121866055784981</v>
       </c>
       <c r="G67">
-        <v>-0.02104530885351611</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01431611726185181</v>
+      </c>
+      <c r="H67">
+        <v>-0.03766482116111299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06385562756271417</v>
+        <v>0.159006402509038</v>
       </c>
       <c r="C68">
-        <v>0.03744883963458758</v>
+        <v>-0.02194290585424287</v>
       </c>
       <c r="D68">
-        <v>0.07465569120897901</v>
+        <v>0.2187337967634733</v>
       </c>
       <c r="E68">
-        <v>0.1791280823182355</v>
+        <v>0.01997356743185939</v>
       </c>
       <c r="F68">
-        <v>-0.08137342097737697</v>
+        <v>-0.05472527270421899</v>
       </c>
       <c r="G68">
-        <v>-0.03537627437794102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.012342047301027</v>
+      </c>
+      <c r="H68">
+        <v>0.03703118641613321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07511042522200667</v>
+        <v>0.05851042234219409</v>
       </c>
       <c r="C69">
-        <v>-0.03064034116682365</v>
+        <v>-0.02902557472763959</v>
       </c>
       <c r="D69">
-        <v>0.02385918946552833</v>
+        <v>-0.03957979412942383</v>
       </c>
       <c r="E69">
-        <v>-0.01669626097220719</v>
+        <v>0.005495697006388984</v>
       </c>
       <c r="F69">
-        <v>0.003779691674373927</v>
+        <v>0.02860677018066659</v>
       </c>
       <c r="G69">
-        <v>0.07444983622490976</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.003608015322396828</v>
+      </c>
+      <c r="H69">
+        <v>0.00709366812695707</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07916567031675058</v>
+        <v>0.1502563010905515</v>
       </c>
       <c r="C71">
-        <v>0.02323316375356049</v>
+        <v>-0.02935054139096426</v>
       </c>
       <c r="D71">
-        <v>0.06377284112251654</v>
+        <v>0.2010404894021864</v>
       </c>
       <c r="E71">
-        <v>0.2093854037798167</v>
+        <v>0.02093474340472618</v>
       </c>
       <c r="F71">
-        <v>-0.09119439532516842</v>
+        <v>-0.06379486232974342</v>
       </c>
       <c r="G71">
-        <v>0.008217894017463307</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.007227786130686723</v>
+      </c>
+      <c r="H71">
+        <v>0.02078161743051466</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1113387657803146</v>
+        <v>0.08435642418180118</v>
       </c>
       <c r="C72">
-        <v>-0.04864753227574238</v>
+        <v>-0.04135355527552474</v>
       </c>
       <c r="D72">
-        <v>0.07694011648999947</v>
+        <v>-0.08435753288884125</v>
       </c>
       <c r="E72">
-        <v>-0.06127358294406222</v>
+        <v>0.009281313381659814</v>
       </c>
       <c r="F72">
-        <v>-0.1216454501391904</v>
+        <v>0.08084068887973346</v>
       </c>
       <c r="G72">
-        <v>-0.1090179275908302</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.08631699926957842</v>
+      </c>
+      <c r="H72">
+        <v>-0.1717509745944981</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2456416803123975</v>
+        <v>0.239299979995999</v>
       </c>
       <c r="C73">
-        <v>-0.08023619959187352</v>
+        <v>-0.05090136818547487</v>
       </c>
       <c r="D73">
-        <v>0.001391917133859164</v>
+        <v>-0.06863302955224557</v>
       </c>
       <c r="E73">
-        <v>0.05211605400207823</v>
+        <v>0.07991275708693013</v>
       </c>
       <c r="F73">
-        <v>-0.338336335203831</v>
+        <v>0.02688883920743351</v>
       </c>
       <c r="G73">
-        <v>-0.4635466342333986</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1275716866232538</v>
+      </c>
+      <c r="H73">
+        <v>-0.5121106315038118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.132653969398452</v>
+        <v>0.1160560318331364</v>
       </c>
       <c r="C74">
-        <v>-0.02433866953713937</v>
+        <v>-0.0529936002899298</v>
       </c>
       <c r="D74">
-        <v>0.03979047248738431</v>
+        <v>-0.09910171700544984</v>
       </c>
       <c r="E74">
-        <v>-0.0157563508838939</v>
+        <v>0.005901028867576156</v>
       </c>
       <c r="F74">
-        <v>0.08528791098824286</v>
+        <v>0.06611842965581562</v>
       </c>
       <c r="G74">
-        <v>-0.03994958868599231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.06509749650185352</v>
+      </c>
+      <c r="H74">
+        <v>0.01819100602046376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.224173921766901</v>
+        <v>0.2261015578941974</v>
       </c>
       <c r="C75">
-        <v>-0.08694162686063749</v>
+        <v>-0.1047842632224808</v>
       </c>
       <c r="D75">
-        <v>0.1269133435383847</v>
+        <v>-0.1602302047518652</v>
       </c>
       <c r="E75">
-        <v>-0.0700476125579301</v>
+        <v>0.02625708582929504</v>
       </c>
       <c r="F75">
-        <v>0.1562457826161821</v>
+        <v>0.1514456293331541</v>
       </c>
       <c r="G75">
-        <v>0.01379963993815485</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1315566583539762</v>
+      </c>
+      <c r="H75">
+        <v>0.09849200554927087</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2736102079225777</v>
+        <v>0.1999241314615666</v>
       </c>
       <c r="C76">
-        <v>-0.04085447151446921</v>
+        <v>-0.09770613762435318</v>
       </c>
       <c r="D76">
-        <v>0.1628555803486717</v>
+        <v>-0.1549136575289493</v>
       </c>
       <c r="E76">
-        <v>-0.04217450269460222</v>
+        <v>-0.017251035061709</v>
       </c>
       <c r="F76">
-        <v>0.1845060638740269</v>
+        <v>0.1524724698713383</v>
       </c>
       <c r="G76">
-        <v>0.02237381347694216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1409075641724556</v>
+      </c>
+      <c r="H76">
+        <v>0.1109751041011166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1471116490771991</v>
+        <v>0.07110601976333589</v>
       </c>
       <c r="C77">
-        <v>-0.03417813326941602</v>
+        <v>-0.01038526163944613</v>
       </c>
       <c r="D77">
-        <v>-0.06188844181474881</v>
+        <v>-0.07469216871266834</v>
       </c>
       <c r="E77">
-        <v>-0.1082083646615076</v>
+        <v>0.01580535566259897</v>
       </c>
       <c r="F77">
-        <v>-0.1603608460958816</v>
+        <v>-0.02954788752758121</v>
       </c>
       <c r="G77">
-        <v>0.2175527259698057</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1193922547334719</v>
+      </c>
+      <c r="H77">
+        <v>0.0519031302222261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06022352569475686</v>
+        <v>0.03728547146751338</v>
       </c>
       <c r="C78">
-        <v>-0.02860261746407168</v>
+        <v>-0.01062863880200496</v>
       </c>
       <c r="D78">
-        <v>-0.002352096985587361</v>
+        <v>-0.06394383529846225</v>
       </c>
       <c r="E78">
-        <v>-0.09938264257714259</v>
+        <v>0.003117499816211402</v>
       </c>
       <c r="F78">
-        <v>-0.04309344464649291</v>
+        <v>0.02665805753179142</v>
       </c>
       <c r="G78">
-        <v>0.06233125274086367</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05901020843631475</v>
+      </c>
+      <c r="H78">
+        <v>-0.0447838958095444</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1713357071520284</v>
+        <v>0.1555741231078219</v>
       </c>
       <c r="C80">
-        <v>0.933024453408612</v>
+        <v>-0.04843426028607814</v>
       </c>
       <c r="D80">
-        <v>0.1355576271797184</v>
+        <v>-0.04839690875705595</v>
       </c>
       <c r="E80">
-        <v>-0.2440791244560684</v>
+        <v>-0.961460103280383</v>
       </c>
       <c r="F80">
-        <v>-0.04051546321918078</v>
+        <v>-0.1451609959738991</v>
       </c>
       <c r="G80">
-        <v>-0.04821650352645958</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.08900242305817194</v>
+      </c>
+      <c r="H80">
+        <v>-0.0103465816447042</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1596456364610526</v>
+        <v>0.1472547455007718</v>
       </c>
       <c r="C81">
-        <v>-0.04072999154771543</v>
+        <v>-0.06737802644809501</v>
       </c>
       <c r="D81">
-        <v>0.1065762247579126</v>
+        <v>-0.1000454682586486</v>
       </c>
       <c r="E81">
-        <v>-0.03953128456836463</v>
+        <v>-0.002201245914771589</v>
       </c>
       <c r="F81">
-        <v>0.1483394573965315</v>
+        <v>0.09505830707754377</v>
       </c>
       <c r="G81">
-        <v>-0.02520335642904664</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.08698126853836605</v>
+      </c>
+      <c r="H81">
+        <v>0.07487850466982424</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05183511051354042</v>
+        <v>0.03338407359755482</v>
       </c>
       <c r="C83">
-        <v>-0.03613054247869619</v>
+        <v>-0.006142081844562271</v>
       </c>
       <c r="D83">
-        <v>-0.0289750668884773</v>
+        <v>-0.02377817891411923</v>
       </c>
       <c r="E83">
-        <v>-0.0288023881276959</v>
+        <v>0.01503404576802861</v>
       </c>
       <c r="F83">
-        <v>-0.04742545310825844</v>
+        <v>0.002664019882746062</v>
       </c>
       <c r="G83">
-        <v>0.05826327171183508</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05725821500133259</v>
+      </c>
+      <c r="H83">
+        <v>-0.02580725957056556</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2446490777072441</v>
+        <v>0.2127683961068568</v>
       </c>
       <c r="C85">
-        <v>-0.05919840561553752</v>
+        <v>-0.08704710475390914</v>
       </c>
       <c r="D85">
-        <v>0.1305199107033157</v>
+        <v>-0.1605482669570807</v>
       </c>
       <c r="E85">
-        <v>-0.04597531039106834</v>
+        <v>0.01613965725968503</v>
       </c>
       <c r="F85">
-        <v>0.1707659695527968</v>
+        <v>0.1349106197731335</v>
       </c>
       <c r="G85">
-        <v>0.04151455708733327</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1507022401213528</v>
+      </c>
+      <c r="H85">
+        <v>0.07034428785178115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.00142304345887649</v>
+        <v>0.01893651328937112</v>
       </c>
       <c r="C86">
-        <v>0.002068837750288995</v>
+        <v>0.0001475618620725657</v>
       </c>
       <c r="D86">
-        <v>-0.01750738850507216</v>
+        <v>-0.002380894544059234</v>
       </c>
       <c r="E86">
-        <v>-0.05248367929349172</v>
+        <v>0.01043224014694554</v>
       </c>
       <c r="F86">
-        <v>-0.06403914736992497</v>
+        <v>-0.01173936743632531</v>
       </c>
       <c r="G86">
-        <v>0.04534523106345223</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07955273508033475</v>
+      </c>
+      <c r="H86">
+        <v>-0.0527600322034526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03876690020076778</v>
+        <v>0.02923772609387762</v>
       </c>
       <c r="C87">
-        <v>-0.01168692615798075</v>
+        <v>-0.00340609070756233</v>
       </c>
       <c r="D87">
-        <v>-0.002222994104327685</v>
+        <v>-0.03127824252665789</v>
       </c>
       <c r="E87">
-        <v>-0.0303175896955478</v>
+        <v>0.004133221986418205</v>
       </c>
       <c r="F87">
-        <v>-0.09481451834735881</v>
+        <v>0.00815914278174933</v>
       </c>
       <c r="G87">
-        <v>0.03534981385946464</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.09135329841158794</v>
+      </c>
+      <c r="H87">
+        <v>-0.04620029612182275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01195874236142072</v>
+        <v>0.03830355060480503</v>
       </c>
       <c r="C88">
-        <v>0.009879598860900602</v>
+        <v>0.01023443887577549</v>
       </c>
       <c r="D88">
-        <v>0.01796429321778867</v>
+        <v>-0.0006024722068162827</v>
       </c>
       <c r="E88">
-        <v>-0.0005687853303725292</v>
+        <v>-0.00898714349516996</v>
       </c>
       <c r="F88">
-        <v>-0.01967959074585825</v>
+        <v>0.01017008492993903</v>
       </c>
       <c r="G88">
-        <v>0.06767049915343415</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.004653059480145684</v>
+      </c>
+      <c r="H88">
+        <v>-0.01245293015992894</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09334355758080393</v>
+        <v>0.2421222656603673</v>
       </c>
       <c r="C89">
-        <v>0.01611641836792312</v>
+        <v>-0.0424150762377445</v>
       </c>
       <c r="D89">
-        <v>0.07917523400438733</v>
+        <v>0.3435214287781705</v>
       </c>
       <c r="E89">
-        <v>0.2708906462275035</v>
+        <v>0.05045900015757105</v>
       </c>
       <c r="F89">
-        <v>-0.1447109269120204</v>
+        <v>-0.0722468796328968</v>
       </c>
       <c r="G89">
-        <v>0.0700160288771922</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.002960459490658865</v>
+      </c>
+      <c r="H89">
+        <v>0.03130447403070642</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09098465915057539</v>
+        <v>0.1986233896103949</v>
       </c>
       <c r="C90">
-        <v>0.06811410894134418</v>
+        <v>-0.03595441650146392</v>
       </c>
       <c r="D90">
-        <v>0.09531398143186581</v>
+        <v>0.3038322926638606</v>
       </c>
       <c r="E90">
-        <v>0.2980390689462136</v>
+        <v>0.02842733659948872</v>
       </c>
       <c r="F90">
-        <v>-0.1244895671952777</v>
+        <v>-0.08427952720184673</v>
       </c>
       <c r="G90">
-        <v>0.05087156689333804</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.03967140059021668</v>
+      </c>
+      <c r="H90">
+        <v>0.05156174515596966</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2952212423650081</v>
+        <v>0.2329431234293479</v>
       </c>
       <c r="C91">
-        <v>-0.07007247355324547</v>
+        <v>-0.1062229871465261</v>
       </c>
       <c r="D91">
-        <v>0.1255375551580665</v>
+        <v>-0.1540191787550662</v>
       </c>
       <c r="E91">
-        <v>-0.01523507968781864</v>
+        <v>0.01713378772953158</v>
       </c>
       <c r="F91">
-        <v>0.2402995939883761</v>
+        <v>0.1435573435141798</v>
       </c>
       <c r="G91">
-        <v>-0.02416702490602798</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1689224658422012</v>
+      </c>
+      <c r="H91">
+        <v>0.1437943238129892</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1527572108061565</v>
+        <v>0.242528701182305</v>
       </c>
       <c r="C92">
-        <v>0.07372262269472095</v>
+        <v>-0.09816436383895187</v>
       </c>
       <c r="D92">
-        <v>0.1614546074816992</v>
+        <v>0.2388619993070835</v>
       </c>
       <c r="E92">
-        <v>0.4628552982761331</v>
+        <v>0.0133641524591817</v>
       </c>
       <c r="F92">
-        <v>0.02379048402488453</v>
+        <v>-0.04096220168118843</v>
       </c>
       <c r="G92">
-        <v>0.4436005230655335</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.03413339210507544</v>
+      </c>
+      <c r="H92">
+        <v>0.1600363104520113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0888545126391852</v>
+        <v>0.2229521189733783</v>
       </c>
       <c r="C93">
-        <v>0.08035494320486426</v>
+        <v>-0.04817658678613009</v>
       </c>
       <c r="D93">
-        <v>0.1021061860958899</v>
+        <v>0.3305461325908272</v>
       </c>
       <c r="E93">
-        <v>0.4194325743125032</v>
+        <v>0.04241243209346264</v>
       </c>
       <c r="F93">
-        <v>-0.09432056090729524</v>
+        <v>-0.1034130974055666</v>
       </c>
       <c r="G93">
-        <v>-0.03379435553065193</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.05615969263072718</v>
+      </c>
+      <c r="H93">
+        <v>-0.003429694018481083</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2848404940011742</v>
+        <v>0.2556388187324535</v>
       </c>
       <c r="C94">
-        <v>-0.1074071472898625</v>
+        <v>-0.0966466972231599</v>
       </c>
       <c r="D94">
-        <v>0.2059947670524666</v>
+        <v>-0.1401582762819973</v>
       </c>
       <c r="E94">
-        <v>-0.04203196126391405</v>
+        <v>0.03402434304027591</v>
       </c>
       <c r="F94">
-        <v>0.2535844834598229</v>
+        <v>0.1881899434699742</v>
       </c>
       <c r="G94">
-        <v>-0.08184549614007669</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1698522378459133</v>
+      </c>
+      <c r="H94">
+        <v>0.1540931166611541</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07438582295817588</v>
+        <v>0.05411594626235827</v>
       </c>
       <c r="C95">
-        <v>-0.06604072450582157</v>
+        <v>-0.02955766389048962</v>
       </c>
       <c r="D95">
-        <v>-0.04071255825685256</v>
+        <v>-0.09397414941483719</v>
       </c>
       <c r="E95">
-        <v>-0.1034009509609506</v>
+        <v>0.07963050018835535</v>
       </c>
       <c r="F95">
-        <v>0.02093126500166168</v>
+        <v>0.002482879539837983</v>
       </c>
       <c r="G95">
-        <v>0.1729008684620129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.05539221669649646</v>
+      </c>
+      <c r="H95">
+        <v>-0.01820966377160678</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1850719576072108</v>
+        <v>0.1820977253982854</v>
       </c>
       <c r="C98">
-        <v>-0.03899566999792919</v>
+        <v>-0.07148132434549652</v>
       </c>
       <c r="D98">
-        <v>-0.005840276516724377</v>
+        <v>-0.03832024410842086</v>
       </c>
       <c r="E98">
-        <v>0.0653425710918973</v>
+        <v>0.05308569924898542</v>
       </c>
       <c r="F98">
-        <v>-0.1748394074094902</v>
+        <v>-0.001793023456267876</v>
       </c>
       <c r="G98">
-        <v>-0.3400933897606989</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.1197590165647385</v>
+      </c>
+      <c r="H98">
+        <v>-0.3756743978726182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005047903441395418</v>
+        <v>0.01388670704469746</v>
       </c>
       <c r="C101">
-        <v>-0.01131482336790377</v>
+        <v>0.0008614125173512272</v>
       </c>
       <c r="D101">
-        <v>0.003330085768618548</v>
+        <v>-0.008988701475680778</v>
       </c>
       <c r="E101">
-        <v>-0.1164925088873673</v>
+        <v>-0.004019348154310367</v>
       </c>
       <c r="F101">
-        <v>-0.1262841228277256</v>
+        <v>0.01925199567199805</v>
       </c>
       <c r="G101">
-        <v>0.1538218313135486</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1077532292811451</v>
+      </c>
+      <c r="H101">
+        <v>0.05296766891565744</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.10139147404046</v>
+        <v>0.1026497703725067</v>
       </c>
       <c r="C102">
-        <v>-0.02620577399680028</v>
+        <v>-0.03451450597307614</v>
       </c>
       <c r="D102">
-        <v>0.04304682796032594</v>
+        <v>-0.07970831818098652</v>
       </c>
       <c r="E102">
-        <v>-0.05602523726899365</v>
+        <v>0.001293029247611167</v>
       </c>
       <c r="F102">
-        <v>0.1378084396534935</v>
+        <v>0.06718859871810055</v>
       </c>
       <c r="G102">
-        <v>0.03445735946259467</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.08321726412237251</v>
+      </c>
+      <c r="H102">
+        <v>0.0625220994357803</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02929950435358216</v>
+        <v>0.02011869983962673</v>
       </c>
       <c r="C103">
-        <v>-0.01281482078120271</v>
+        <v>-0.007853045433523676</v>
       </c>
       <c r="D103">
-        <v>0.01472195430126908</v>
+        <v>-0.01785745318611145</v>
       </c>
       <c r="E103">
-        <v>-0.01899466660841909</v>
+        <v>-0.00660493882895725</v>
       </c>
       <c r="F103">
-        <v>0.01827247904515655</v>
+        <v>0.01670583199895237</v>
       </c>
       <c r="G103">
-        <v>0.03122298945962568</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.001080218465486768</v>
+      </c>
+      <c r="H103">
+        <v>0.00871886595775506</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2813067897590182</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9428957240696515</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.006481760753208586</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02480303850785793</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1449782730482652</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.02090983401005051</v>
+      </c>
+      <c r="H104">
+        <v>0.03336999467058046</v>
       </c>
     </row>
   </sheetData>
